--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1743790.338487691</v>
+        <v>1742578.637739506</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>907063.5773006302</v>
+        <v>907063.5773006295</v>
       </c>
     </row>
     <row r="9">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41.31500304752735</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="H3" t="n">
         <v>41.31500304752735</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="V4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>36.39025468426209</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="U6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
     </row>
     <row r="7">
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>15.18661160258025</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>41.31500304752735</v>
@@ -1217,67 +1217,67 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H9" t="n">
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>15.18661160258025</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>196.7692533286586</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H11" t="n">
         <v>278.0434075022746</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>80.4340941313077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.0635154158066</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S13" t="n">
-        <v>151.3932686552009</v>
+        <v>151.3932686552011</v>
       </c>
       <c r="T13" t="n">
         <v>241.8869156041224</v>
@@ -1618,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>237.6320931095276</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>33.01656466021646</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1785,7 +1785,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I16" t="n">
-        <v>76.97845642156403</v>
+        <v>76.97845642156406</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S16" t="n">
         <v>151.3932686552011</v>
@@ -1821,7 +1821,7 @@
         <v>241.8869156041224</v>
       </c>
       <c r="U16" t="n">
-        <v>275.629091126406</v>
+        <v>275.6290911264057</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T17" t="n">
-        <v>214.363509552103</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U17" t="n">
         <v>256.5660605529466</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S19" t="n">
-        <v>151.3932686552011</v>
+        <v>151.3932686552009</v>
       </c>
       <c r="T19" t="n">
         <v>241.8869156041224</v>
@@ -2083,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.57991364897771</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T20" t="n">
         <v>214.3635095521018</v>
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016075</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.5764026524035</v>
+        <v>163.5764026524037</v>
       </c>
       <c r="H22" t="n">
         <v>135.3116756443242</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S22" t="n">
         <v>151.3932686552011</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.57991364897681</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T23" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5660605529476</v>
+        <v>256.5660605529467</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S25" t="n">
-        <v>151.3932686552009</v>
+        <v>151.3932686552011</v>
       </c>
       <c r="T25" t="n">
-        <v>241.8869156041224</v>
+        <v>241.8869156041222</v>
       </c>
       <c r="U25" t="n">
         <v>275.629091126406</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897681</v>
       </c>
       <c r="T26" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5660605529458</v>
+        <v>256.5660605529539</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T29" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5660605529466</v>
+        <v>256.5660605529467</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S31" t="n">
         <v>151.3932686552011</v>
@@ -3006,7 +3006,7 @@
         <v>241.8869156041224</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6290911264061</v>
+        <v>275.629091126406</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3040,7 +3040,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948852</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>396.5836142728854</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T32" t="n">
         <v>214.3635095521018</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.5764026524039</v>
+        <v>163.5764026524035</v>
       </c>
       <c r="H34" t="n">
         <v>135.3116756443242</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.063515415806592</v>
+        <v>5.06351541580615</v>
       </c>
       <c r="S34" t="n">
         <v>151.3932686552011</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.57991364897681</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T35" t="n">
-        <v>214.3635095521018</v>
+        <v>214.3635095521012</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5660605529467</v>
+        <v>256.5660605529485</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S37" t="n">
         <v>151.3932686552011</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.57991364897592</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T38" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5660605529476</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3568,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864827</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S40" t="n">
         <v>151.3932686552011</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695716</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3742,10 +3742,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>46.93060210603954</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3757,7 +3757,7 @@
         <v>396.5836142728854</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>33.01656466021571</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S43" t="n">
         <v>151.3932686552011</v>
       </c>
       <c r="T43" t="n">
-        <v>241.8869156041229</v>
+        <v>241.8869156041224</v>
       </c>
       <c r="U43" t="n">
         <v>275.629091126406</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>284.0859530482732</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3988,10 +3988,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>279.8346441103722</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>33.01656466021661</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4152,7 +4152,7 @@
         <v>163.5764026524035</v>
       </c>
       <c r="H46" t="n">
-        <v>135.3116756443237</v>
+        <v>135.3116756443242</v>
       </c>
       <c r="I46" t="n">
         <v>76.97845642156406</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S46" t="n">
         <v>151.3932686552011</v>
@@ -4191,7 +4191,7 @@
         <v>241.8869156041224</v>
       </c>
       <c r="U46" t="n">
-        <v>275.629091126406</v>
+        <v>275.6290911264061</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4330,19 +4330,19 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J2" t="n">
-        <v>42.55445313895319</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K2" t="n">
-        <v>42.55445313895319</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L2" t="n">
-        <v>42.55445313895319</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M2" t="n">
-        <v>42.55445313895319</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N2" t="n">
-        <v>42.55445313895319</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O2" t="n">
         <v>42.55445313895319</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C3" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D3" t="n">
-        <v>86.76985286506957</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E3" t="n">
-        <v>86.76985286506957</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="F3" t="n">
-        <v>86.76985286506957</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="G3" t="n">
         <v>45.03752655443588</v>
@@ -4412,22 +4412,22 @@
         <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>70.27072642131186</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L3" t="n">
-        <v>83.45630615600527</v>
+        <v>152.074432455416</v>
       </c>
       <c r="M3" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="N3" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="O3" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P3" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q3" t="n">
         <v>165.2600121901094</v>
@@ -4436,25 +4436,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T3" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U3" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V3" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W3" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X3" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y3" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.305200243802188</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="C4" t="n">
-        <v>3.305200243802188</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="D4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G4" t="n">
         <v>3.305200243802188</v>
@@ -4488,52 +4488,52 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L4" t="n">
         <v>44.20705326085427</v>
       </c>
       <c r="M4" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N4" t="n">
-        <v>126.0107592949584</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O4" t="n">
-        <v>165.2600121901094</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P4" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U4" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="V4" t="n">
-        <v>123.5276858794757</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="W4" t="n">
-        <v>86.76985286506957</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="X4" t="n">
-        <v>45.03752655443588</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.305200243802188</v>
+        <v>102.1098645848476</v>
       </c>
     </row>
     <row r="5">
@@ -4555,37 +4555,37 @@
         <v>27.13222579419039</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802176</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802176</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802176</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I5" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M5" t="n">
         <v>44.20705326085427</v>
       </c>
       <c r="N5" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O5" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P5" t="n">
-        <v>83.45630615600524</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q5" t="n">
         <v>124.3581591730573</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C6" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D6" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E6" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F6" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G6" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M6" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="N6" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="O6" t="n">
-        <v>42.55445313895319</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P6" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q6" t="n">
         <v>124.3581591730573</v>
@@ -4673,25 +4673,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="T6" t="n">
         <v>123.5276858794757</v>
       </c>
-      <c r="T6" t="n">
-        <v>81.79535956884203</v>
-      </c>
       <c r="U6" t="n">
-        <v>40.06303325820834</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V6" t="n">
-        <v>40.06303325820834</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W6" t="n">
-        <v>40.06303325820834</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X6" t="n">
-        <v>40.06303325820834</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y6" t="n">
-        <v>40.06303325820834</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="7">
@@ -4704,19 +4704,19 @@
         <v>143.8421908954813</v>
       </c>
       <c r="C7" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D7" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="E7" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F7" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G7" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H7" t="n">
         <v>45.03752655443588</v>
@@ -4728,22 +4728,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="K7" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L7" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M7" t="n">
-        <v>126.0107592949584</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N7" t="n">
-        <v>165.2600121901094</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O7" t="n">
-        <v>165.2600121901094</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P7" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C8" t="n">
-        <v>88.7359473806426</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D8" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E8" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419044</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="I8" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M8" t="n">
         <v>44.20705326085427</v>
       </c>
       <c r="N8" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O8" t="n">
-        <v>44.20705326085427</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="P8" t="n">
-        <v>83.45630615600527</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="Q8" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R8" t="n">
         <v>165.2600121901094</v>
@@ -4843,7 +4843,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
-        <v>164.4449616415467</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X8" t="n">
         <v>149.3429022612615</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C9" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D9" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>29.36887340425979</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J9" t="n">
-        <v>70.27072642131186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K9" t="n">
-        <v>70.27072642131186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L9" t="n">
-        <v>70.27072642131186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M9" t="n">
-        <v>70.27072642131186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N9" t="n">
-        <v>70.27072642131186</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O9" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P9" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
         <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W9" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X9" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y9" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="10">
@@ -4956,28 +4956,28 @@
         <v>45.03752655443588</v>
       </c>
       <c r="H10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M10" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N10" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O10" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
@@ -4989,13 +4989,13 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U10" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V10" t="n">
         <v>128.5021791757032</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2293.430070571345</v>
+        <v>2495.262758393796</v>
       </c>
       <c r="C11" t="n">
-        <v>1855.287597754768</v>
+        <v>2057.120285577219</v>
       </c>
       <c r="D11" t="n">
-        <v>1419.377812929213</v>
+        <v>1621.210500751664</v>
       </c>
       <c r="E11" t="n">
-        <v>985.6030680875078</v>
+        <v>1187.435755909959</v>
       </c>
       <c r="F11" t="n">
-        <v>557.7356384967156</v>
+        <v>759.568326319167</v>
       </c>
       <c r="G11" t="n">
         <v>358.9788169526161</v>
@@ -5041,52 +5041,52 @@
         <v>108.2610888134436</v>
       </c>
       <c r="J11" t="n">
-        <v>175.5011631531832</v>
+        <v>610.7558506061011</v>
       </c>
       <c r="K11" t="n">
-        <v>1110.626896355487</v>
+        <v>1545.881583808405</v>
       </c>
       <c r="L11" t="n">
-        <v>2077.447162365678</v>
+        <v>1670.902429845825</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.556942520411</v>
+        <v>1810.012210000559</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.377208530601</v>
+        <v>1951.372931832993</v>
       </c>
       <c r="O11" t="n">
-        <v>3657.101985527944</v>
+        <v>2113.139259982896</v>
       </c>
       <c r="P11" t="n">
-        <v>3771.026570457295</v>
+        <v>3055.373719745643</v>
       </c>
       <c r="Q11" t="n">
-        <v>3856.579189233484</v>
+        <v>3687.425124480427</v>
       </c>
       <c r="R11" t="n">
         <v>3906.344509132082</v>
       </c>
       <c r="S11" t="n">
-        <v>3906.344509132082</v>
+        <v>3841.112273123015</v>
       </c>
       <c r="T11" t="n">
-        <v>3906.344509132082</v>
+        <v>3624.583475595639</v>
       </c>
       <c r="U11" t="n">
-        <v>3906.344509132082</v>
+        <v>3365.425838673471</v>
       </c>
       <c r="V11" t="n">
-        <v>3543.727559065909</v>
+        <v>3002.808888607297</v>
       </c>
       <c r="W11" t="n">
-        <v>3138.872104476942</v>
+        <v>2921.562328878704</v>
       </c>
       <c r="X11" t="n">
-        <v>2719.729641056253</v>
+        <v>2921.562328878704</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.729641056253</v>
+        <v>2921.562328878704</v>
       </c>
     </row>
     <row r="12">
@@ -5123,13 +5123,13 @@
         <v>483.3908623566324</v>
       </c>
       <c r="K12" t="n">
-        <v>551.8388075949779</v>
+        <v>1037.872737447786</v>
       </c>
       <c r="L12" t="n">
-        <v>643.8755169690249</v>
+        <v>1129.909446821833</v>
       </c>
       <c r="M12" t="n">
-        <v>751.278015717408</v>
+        <v>1237.311945570216</v>
       </c>
       <c r="N12" t="n">
         <v>1347.55706887436</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1142.694818667513</v>
+        <v>1142.694818667514</v>
       </c>
       <c r="C13" t="n">
-        <v>970.1331071507383</v>
+        <v>970.1331071507387</v>
       </c>
       <c r="D13" t="n">
-        <v>804.255114352261</v>
+        <v>804.2551143522614</v>
       </c>
       <c r="E13" t="n">
-        <v>634.4971106029983</v>
+        <v>634.4971106029986</v>
       </c>
       <c r="F13" t="n">
         <v>457.7900565647545</v>
       </c>
       <c r="G13" t="n">
-        <v>292.5613670168722</v>
+        <v>292.5613670168723</v>
       </c>
       <c r="H13" t="n">
         <v>155.8829067700801</v>
@@ -5199,13 +5199,13 @@
         <v>78.12689018264165</v>
       </c>
       <c r="J13" t="n">
-        <v>189.8312326722275</v>
+        <v>189.8312326722277</v>
       </c>
       <c r="K13" t="n">
-        <v>505.8772172179256</v>
+        <v>505.8772172179259</v>
       </c>
       <c r="L13" t="n">
-        <v>976.9209225542746</v>
+        <v>976.920922554275</v>
       </c>
       <c r="M13" t="n">
         <v>1492.110648839365</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1625.98630994883</v>
+        <v>2247.760896937172</v>
       </c>
       <c r="C14" t="n">
-        <v>1187.843837132253</v>
+        <v>1809.618424120595</v>
       </c>
       <c r="D14" t="n">
-        <v>751.9340523066976</v>
+        <v>1373.70863929504</v>
       </c>
       <c r="E14" t="n">
-        <v>318.1593074649928</v>
+        <v>939.9338944533347</v>
       </c>
       <c r="F14" t="n">
-        <v>78.12689018264165</v>
+        <v>512.0664648625425</v>
       </c>
       <c r="G14" t="n">
-        <v>78.12689018264165</v>
+        <v>111.4769554959916</v>
       </c>
       <c r="H14" t="n">
         <v>78.12689018264165</v>
@@ -5281,22 +5281,22 @@
         <v>610.7558506061011</v>
       </c>
       <c r="K14" t="n">
-        <v>711.5312918502273</v>
+        <v>1545.881583808405</v>
       </c>
       <c r="L14" t="n">
-        <v>836.5521378876471</v>
+        <v>1670.902429845825</v>
       </c>
       <c r="M14" t="n">
-        <v>975.6619180423804</v>
+        <v>1810.012210000559</v>
       </c>
       <c r="N14" t="n">
-        <v>1692.817779931301</v>
+        <v>1951.372931832993</v>
       </c>
       <c r="O14" t="n">
-        <v>2659.638045941491</v>
+        <v>2113.139259982896</v>
       </c>
       <c r="P14" t="n">
-        <v>3601.872505704238</v>
+        <v>3055.373719745643</v>
       </c>
       <c r="Q14" t="n">
         <v>3687.425124480427</v>
@@ -5311,19 +5311,19 @@
         <v>3906.344509132082</v>
       </c>
       <c r="U14" t="n">
-        <v>3647.186872209914</v>
+        <v>3906.344509132082</v>
       </c>
       <c r="V14" t="n">
-        <v>3284.56992214374</v>
+        <v>3906.344509132082</v>
       </c>
       <c r="W14" t="n">
-        <v>2879.714467554773</v>
+        <v>3501.489054543115</v>
       </c>
       <c r="X14" t="n">
-        <v>2460.572004134084</v>
+        <v>3082.346591122426</v>
       </c>
       <c r="Y14" t="n">
-        <v>2052.285880433737</v>
+        <v>2674.060467422079</v>
       </c>
     </row>
     <row r="15">
@@ -5360,13 +5360,13 @@
         <v>483.3908623566324</v>
       </c>
       <c r="K15" t="n">
-        <v>551.8388075949779</v>
+        <v>1037.872737447786</v>
       </c>
       <c r="L15" t="n">
-        <v>643.8755169690249</v>
+        <v>1129.909446821833</v>
       </c>
       <c r="M15" t="n">
-        <v>751.278015717408</v>
+        <v>1237.311945570216</v>
       </c>
       <c r="N15" t="n">
         <v>1347.55706887436</v>
@@ -5421,10 +5421,10 @@
         <v>804.255114352261</v>
       </c>
       <c r="E16" t="n">
-        <v>634.4971106029982</v>
+        <v>634.4971106029983</v>
       </c>
       <c r="F16" t="n">
-        <v>457.7900565647544</v>
+        <v>457.7900565647545</v>
       </c>
       <c r="G16" t="n">
         <v>292.5613670168722</v>
@@ -5442,13 +5442,13 @@
         <v>505.8772172179259</v>
       </c>
       <c r="L16" t="n">
-        <v>976.9209225542746</v>
+        <v>976.920922554275</v>
       </c>
       <c r="M16" t="n">
         <v>1492.110648839365</v>
       </c>
       <c r="N16" t="n">
-        <v>1988.750750280406</v>
+        <v>1988.750750280407</v>
       </c>
       <c r="O16" t="n">
         <v>2458.649930339091</v>
@@ -5463,10 +5463,10 @@
         <v>3041.972710015318</v>
       </c>
       <c r="S16" t="n">
-        <v>2889.050216424206</v>
+        <v>2889.050216424205</v>
       </c>
       <c r="T16" t="n">
-        <v>2644.719998642264</v>
+        <v>2644.719998642263</v>
       </c>
       <c r="U16" t="n">
         <v>2366.306775282258</v>
@@ -5518,31 +5518,31 @@
         <v>634.2464114628646</v>
       </c>
       <c r="K17" t="n">
-        <v>735.0218527069907</v>
+        <v>735.0218527069908</v>
       </c>
       <c r="L17" t="n">
-        <v>1935.10266499727</v>
+        <v>860.0426987444106</v>
       </c>
       <c r="M17" t="n">
-        <v>2074.212445152004</v>
+        <v>999.1524788991439</v>
       </c>
       <c r="N17" t="n">
-        <v>3323.338446465895</v>
+        <v>2174.004715142531</v>
       </c>
       <c r="O17" t="n">
-        <v>3456.821367574127</v>
+        <v>3287.66730282107</v>
       </c>
       <c r="P17" t="n">
-        <v>4399.055827336874</v>
+        <v>4229.901762583817</v>
       </c>
       <c r="Q17" t="n">
-        <v>5031.107232071658</v>
+        <v>4861.9531673186</v>
       </c>
       <c r="R17" t="n">
-        <v>5080.872551970257</v>
+        <v>5080.872551970256</v>
       </c>
       <c r="S17" t="n">
-        <v>5015.640315961189</v>
+        <v>5015.640315961188</v>
       </c>
       <c r="T17" t="n">
         <v>4799.111518433812</v>
@@ -5594,25 +5594,25 @@
         <v>116.2116974506014</v>
       </c>
       <c r="J18" t="n">
-        <v>480.8177500529383</v>
+        <v>452.1764144341287</v>
       </c>
       <c r="K18" t="n">
-        <v>549.2656952912838</v>
+        <v>520.6243596724742</v>
       </c>
       <c r="L18" t="n">
-        <v>641.302404665331</v>
+        <v>612.6610690465213</v>
       </c>
       <c r="M18" t="n">
-        <v>748.704903413714</v>
+        <v>720.0635677949044</v>
       </c>
       <c r="N18" t="n">
-        <v>858.9500267178574</v>
+        <v>830.3086910990478</v>
       </c>
       <c r="O18" t="n">
-        <v>959.8027764080691</v>
+        <v>931.1614407892595</v>
       </c>
       <c r="P18" t="n">
-        <v>1040.745999369937</v>
+        <v>1012.104663751127</v>
       </c>
       <c r="Q18" t="n">
         <v>1606.952003345172</v>
@@ -5697,7 +5697,7 @@
         <v>3070.57793290825</v>
       </c>
       <c r="R19" t="n">
-        <v>3065.463270872082</v>
+        <v>3065.463270872081</v>
       </c>
       <c r="S19" t="n">
         <v>2912.540777280969</v>
@@ -5752,31 +5752,31 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J20" t="n">
-        <v>198.9917240099467</v>
+        <v>634.2464114628646</v>
       </c>
       <c r="K20" t="n">
-        <v>299.7671652540728</v>
+        <v>1569.372144665169</v>
       </c>
       <c r="L20" t="n">
-        <v>1499.847977544352</v>
+        <v>1694.392990702589</v>
       </c>
       <c r="M20" t="n">
-        <v>2757.363934156991</v>
+        <v>1833.502770857322</v>
       </c>
       <c r="N20" t="n">
-        <v>4014.879890769629</v>
+        <v>2174.004715142531</v>
       </c>
       <c r="O20" t="n">
-        <v>4148.362811877861</v>
+        <v>3287.66730282107</v>
       </c>
       <c r="P20" t="n">
-        <v>4399.055827336874</v>
+        <v>4229.901762583817</v>
       </c>
       <c r="Q20" t="n">
-        <v>5031.107232071658</v>
+        <v>4861.9531673186</v>
       </c>
       <c r="R20" t="n">
-        <v>5080.872551970257</v>
+        <v>5080.872551970256</v>
       </c>
       <c r="S20" t="n">
         <v>5015.640315961188</v>
@@ -5791,13 +5791,13 @@
         <v>4177.33693144547</v>
       </c>
       <c r="W20" t="n">
-        <v>3772.481476856503</v>
+        <v>3772.481476856504</v>
       </c>
       <c r="X20" t="n">
-        <v>3353.339013435814</v>
+        <v>3353.339013435815</v>
       </c>
       <c r="Y20" t="n">
-        <v>2945.052889735467</v>
+        <v>2945.052889735468</v>
       </c>
     </row>
     <row r="21">
@@ -5889,16 +5889,16 @@
         <v>1166.185379524277</v>
       </c>
       <c r="C22" t="n">
-        <v>993.6236680075018</v>
+        <v>993.623668007502</v>
       </c>
       <c r="D22" t="n">
-        <v>827.7456752090245</v>
+        <v>827.7456752090247</v>
       </c>
       <c r="E22" t="n">
-        <v>657.9876714597617</v>
+        <v>657.9876714597619</v>
       </c>
       <c r="F22" t="n">
-        <v>481.2806174215179</v>
+        <v>481.2806174215182</v>
       </c>
       <c r="G22" t="n">
         <v>316.0519278736357</v>
@@ -5968,7 +5968,7 @@
         <v>2518.75331925056</v>
       </c>
       <c r="C23" t="n">
-        <v>2080.610846433984</v>
+        <v>2080.610846433983</v>
       </c>
       <c r="D23" t="n">
         <v>1644.701061608428</v>
@@ -5977,7 +5977,7 @@
         <v>1210.926316766723</v>
       </c>
       <c r="F23" t="n">
-        <v>783.058887175931</v>
+        <v>783.0588871759304</v>
       </c>
       <c r="G23" t="n">
         <v>382.4693778093795</v>
@@ -5989,37 +5989,37 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J23" t="n">
-        <v>198.9917240099467</v>
+        <v>634.2464114628646</v>
       </c>
       <c r="K23" t="n">
-        <v>1134.117457212251</v>
+        <v>1569.372144665169</v>
       </c>
       <c r="L23" t="n">
-        <v>2334.19826950253</v>
+        <v>1694.392990702589</v>
       </c>
       <c r="M23" t="n">
-        <v>2473.308049657263</v>
+        <v>1833.502770857322</v>
       </c>
       <c r="N23" t="n">
-        <v>2614.668771489698</v>
+        <v>2174.004715142531</v>
       </c>
       <c r="O23" t="n">
-        <v>3728.331359168236</v>
+        <v>3287.66730282107</v>
       </c>
       <c r="P23" t="n">
-        <v>4670.565818930983</v>
+        <v>4229.901762583817</v>
       </c>
       <c r="Q23" t="n">
-        <v>5031.107232071658</v>
+        <v>4861.9531673186</v>
       </c>
       <c r="R23" t="n">
-        <v>5080.872551970257</v>
+        <v>5080.872551970256</v>
       </c>
       <c r="S23" t="n">
-        <v>5015.640315961189</v>
+        <v>5015.640315961188</v>
       </c>
       <c r="T23" t="n">
-        <v>4799.111518433813</v>
+        <v>4799.111518433812</v>
       </c>
       <c r="U23" t="n">
         <v>4539.953881511644</v>
@@ -6028,13 +6028,13 @@
         <v>4177.33693144547</v>
       </c>
       <c r="W23" t="n">
-        <v>3772.481476856503</v>
+        <v>3772.481476856504</v>
       </c>
       <c r="X23" t="n">
-        <v>3353.339013435814</v>
+        <v>3353.339013435815</v>
       </c>
       <c r="Y23" t="n">
-        <v>2945.052889735467</v>
+        <v>2945.052889735468</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I24" t="n">
-        <v>116.2116974506014</v>
+        <v>142.275370611059</v>
       </c>
       <c r="J24" t="n">
-        <v>156.259425086726</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K24" t="n">
-        <v>637.797137766814</v>
+        <v>1061.36329830455</v>
       </c>
       <c r="L24" t="n">
-        <v>729.8338471408612</v>
+        <v>1153.400007678597</v>
       </c>
       <c r="M24" t="n">
-        <v>837.2363458892441</v>
+        <v>1260.80250642698</v>
       </c>
       <c r="N24" t="n">
-        <v>947.4814691933876</v>
+        <v>1371.047629731123</v>
       </c>
       <c r="O24" t="n">
-        <v>1048.334218883599</v>
+        <v>1471.900379421335</v>
       </c>
       <c r="P24" t="n">
-        <v>1129.277441845467</v>
+        <v>1552.843602383203</v>
       </c>
       <c r="Q24" t="n">
-        <v>1724.124781439511</v>
+        <v>1606.952003345172</v>
       </c>
       <c r="R24" t="n">
         <v>1750.44276261109</v>
@@ -6180,7 +6180,7 @@
         <v>2668.210559499028</v>
       </c>
       <c r="U25" t="n">
-        <v>2389.797336139021</v>
+        <v>2389.797336139022</v>
       </c>
       <c r="V25" t="n">
         <v>2102.841828009452</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2518.753319250561</v>
+        <v>2518.75331925056</v>
       </c>
       <c r="C26" t="n">
         <v>2080.610846433983</v>
@@ -6214,64 +6214,64 @@
         <v>1210.926316766723</v>
       </c>
       <c r="F26" t="n">
-        <v>783.0588871759304</v>
+        <v>783.0588871759305</v>
       </c>
       <c r="G26" t="n">
-        <v>382.4693778093795</v>
+        <v>382.4693778093797</v>
       </c>
       <c r="H26" t="n">
-        <v>101.6174510394051</v>
+        <v>101.6174510394053</v>
       </c>
       <c r="I26" t="n">
-        <v>131.7516496702071</v>
+        <v>131.7516496702072</v>
       </c>
       <c r="J26" t="n">
-        <v>198.9917240099467</v>
+        <v>198.9917240099469</v>
       </c>
       <c r="K26" t="n">
-        <v>299.7671652540728</v>
+        <v>299.767165254073</v>
       </c>
       <c r="L26" t="n">
-        <v>1202.935527462303</v>
+        <v>1499.847977544352</v>
       </c>
       <c r="M26" t="n">
-        <v>2460.451484074941</v>
+        <v>2757.363934156992</v>
       </c>
       <c r="N26" t="n">
-        <v>3717.967440687579</v>
+        <v>4014.879890769632</v>
       </c>
       <c r="O26" t="n">
-        <v>4831.630028366118</v>
+        <v>4831.630028366125</v>
       </c>
       <c r="P26" t="n">
-        <v>4945.554613295468</v>
+        <v>4945.554613295475</v>
       </c>
       <c r="Q26" t="n">
-        <v>5031.107232071657</v>
+        <v>5031.107232071664</v>
       </c>
       <c r="R26" t="n">
-        <v>5080.872551970256</v>
+        <v>5080.872551970263</v>
       </c>
       <c r="S26" t="n">
-        <v>5015.640315961188</v>
+        <v>5015.640315961195</v>
       </c>
       <c r="T26" t="n">
-        <v>4799.111518433812</v>
+        <v>4799.11151843382</v>
       </c>
       <c r="U26" t="n">
-        <v>4539.953881511645</v>
+        <v>4539.953881511644</v>
       </c>
       <c r="V26" t="n">
-        <v>4177.336931445471</v>
+        <v>4177.33693144547</v>
       </c>
       <c r="W26" t="n">
-        <v>3772.481476856504</v>
+        <v>3772.481476856503</v>
       </c>
       <c r="X26" t="n">
-        <v>3353.339013435815</v>
+        <v>3353.339013435814</v>
       </c>
       <c r="Y26" t="n">
-        <v>2945.052889735468</v>
+        <v>2945.052889735467</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>603.1797588318151</v>
+        <v>603.1797588318152</v>
       </c>
       <c r="C27" t="n">
-        <v>496.7232976684573</v>
+        <v>496.7232976684575</v>
       </c>
       <c r="D27" t="n">
-        <v>401.6330088150106</v>
+        <v>401.6330088150107</v>
       </c>
       <c r="E27" t="n">
-        <v>307.5125941419643</v>
+        <v>307.5125941419644</v>
       </c>
       <c r="F27" t="n">
-        <v>224.1287557581259</v>
+        <v>224.1287557581261</v>
       </c>
       <c r="G27" t="n">
-        <v>139.1761564281556</v>
+        <v>139.1761564281557</v>
       </c>
       <c r="H27" t="n">
-        <v>101.6174510394051</v>
+        <v>101.6174510394053</v>
       </c>
       <c r="I27" t="n">
-        <v>116.2116974506014</v>
+        <v>116.2116974506015</v>
       </c>
       <c r="J27" t="n">
-        <v>156.259425086726</v>
+        <v>452.1764144341287</v>
       </c>
       <c r="K27" t="n">
-        <v>637.797137766814</v>
+        <v>520.6243596724742</v>
       </c>
       <c r="L27" t="n">
-        <v>729.8338471408612</v>
+        <v>612.6610690465213</v>
       </c>
       <c r="M27" t="n">
-        <v>837.2363458892441</v>
+        <v>720.0635677949044</v>
       </c>
       <c r="N27" t="n">
-        <v>947.4814691933876</v>
+        <v>830.3086910990478</v>
       </c>
       <c r="O27" t="n">
-        <v>1048.334218883599</v>
+        <v>931.1614407892595</v>
       </c>
       <c r="P27" t="n">
-        <v>1129.277441845467</v>
+        <v>1012.104663751127</v>
       </c>
       <c r="Q27" t="n">
-        <v>1724.124781439511</v>
+        <v>1606.952003345172</v>
       </c>
       <c r="R27" t="n">
         <v>1750.44276261109</v>
@@ -6335,22 +6335,22 @@
         <v>1695.020644622135</v>
       </c>
       <c r="T27" t="n">
-        <v>1566.585240782273</v>
+        <v>1566.585240782274</v>
       </c>
       <c r="U27" t="n">
         <v>1390.277147098284</v>
       </c>
       <c r="V27" t="n">
-        <v>1191.159629160283</v>
+        <v>1191.159629160284</v>
       </c>
       <c r="W27" t="n">
-        <v>1005.836874893477</v>
+        <v>1005.836874893478</v>
       </c>
       <c r="X27" t="n">
-        <v>850.9694391323575</v>
+        <v>850.9694391323576</v>
       </c>
       <c r="Y27" t="n">
-        <v>724.4836599115782</v>
+        <v>724.4836599115783</v>
       </c>
     </row>
     <row r="28">
@@ -6369,31 +6369,31 @@
         <v>827.7456752090245</v>
       </c>
       <c r="E28" t="n">
-        <v>657.9876714597617</v>
+        <v>657.9876714597618</v>
       </c>
       <c r="F28" t="n">
-        <v>481.2806174215179</v>
+        <v>481.2806174215181</v>
       </c>
       <c r="G28" t="n">
-        <v>316.0519278736357</v>
+        <v>316.0519278736358</v>
       </c>
       <c r="H28" t="n">
-        <v>179.3734676268436</v>
+        <v>179.3734676268437</v>
       </c>
       <c r="I28" t="n">
-        <v>101.6174510394051</v>
+        <v>101.6174510394053</v>
       </c>
       <c r="J28" t="n">
-        <v>213.3217935289912</v>
+        <v>213.3217935289913</v>
       </c>
       <c r="K28" t="n">
-        <v>529.3677780746891</v>
+        <v>529.3677780746896</v>
       </c>
       <c r="L28" t="n">
         <v>1000.411483411038</v>
       </c>
       <c r="M28" t="n">
-        <v>1515.601209696128</v>
+        <v>1515.601209696129</v>
       </c>
       <c r="N28" t="n">
         <v>2012.24131113717</v>
@@ -6405,10 +6405,10 @@
         <v>2872.627768482439</v>
       </c>
       <c r="Q28" t="n">
-        <v>3070.577932908249</v>
+        <v>3070.57793290825</v>
       </c>
       <c r="R28" t="n">
-        <v>3065.463270872081</v>
+        <v>3065.463270872082</v>
       </c>
       <c r="S28" t="n">
         <v>2912.540777280969</v>
@@ -6445,13 +6445,13 @@
         <v>2080.610846433984</v>
       </c>
       <c r="D29" t="n">
-        <v>1644.701061608427</v>
+        <v>1644.701061608428</v>
       </c>
       <c r="E29" t="n">
-        <v>1210.926316766722</v>
+        <v>1210.926316766723</v>
       </c>
       <c r="F29" t="n">
-        <v>783.0588871759303</v>
+        <v>783.058887175931</v>
       </c>
       <c r="G29" t="n">
         <v>382.4693778093795</v>
@@ -6463,28 +6463,28 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J29" t="n">
-        <v>198.9917240099467</v>
+        <v>634.2464114628646</v>
       </c>
       <c r="K29" t="n">
-        <v>299.7671652540728</v>
+        <v>1569.372144665169</v>
       </c>
       <c r="L29" t="n">
-        <v>424.7880112914926</v>
+        <v>1694.392990702589</v>
       </c>
       <c r="M29" t="n">
-        <v>1682.303967904131</v>
+        <v>2032.643993310097</v>
       </c>
       <c r="N29" t="n">
-        <v>2889.657565854183</v>
+        <v>2174.004715142531</v>
       </c>
       <c r="O29" t="n">
-        <v>4003.320153532721</v>
+        <v>3287.66730282107</v>
       </c>
       <c r="P29" t="n">
-        <v>4945.554613295468</v>
+        <v>4229.901762583817</v>
       </c>
       <c r="Q29" t="n">
-        <v>5031.107232071657</v>
+        <v>4861.9531673186</v>
       </c>
       <c r="R29" t="n">
         <v>5080.872551970256</v>
@@ -6542,28 +6542,28 @@
         <v>116.2116974506014</v>
       </c>
       <c r="J30" t="n">
-        <v>156.259425086726</v>
+        <v>452.1764144341287</v>
       </c>
       <c r="K30" t="n">
-        <v>224.7073703250715</v>
+        <v>520.6243596724742</v>
       </c>
       <c r="L30" t="n">
-        <v>729.8338471408612</v>
+        <v>612.6610690465213</v>
       </c>
       <c r="M30" t="n">
-        <v>837.2363458892441</v>
+        <v>720.0635677949044</v>
       </c>
       <c r="N30" t="n">
-        <v>947.4814691933876</v>
+        <v>830.3086910990478</v>
       </c>
       <c r="O30" t="n">
-        <v>1048.334218883599</v>
+        <v>931.1614407892595</v>
       </c>
       <c r="P30" t="n">
-        <v>1129.277441845467</v>
+        <v>1012.104663751127</v>
       </c>
       <c r="Q30" t="n">
-        <v>1724.124781439511</v>
+        <v>1606.952003345172</v>
       </c>
       <c r="R30" t="n">
         <v>1750.44276261109</v>
@@ -6600,16 +6600,16 @@
         <v>1166.185379524277</v>
       </c>
       <c r="C31" t="n">
-        <v>993.6236680075019</v>
+        <v>993.6236680075021</v>
       </c>
       <c r="D31" t="n">
-        <v>827.7456752090246</v>
+        <v>827.7456752090247</v>
       </c>
       <c r="E31" t="n">
-        <v>657.9876714597619</v>
+        <v>657.9876714597617</v>
       </c>
       <c r="F31" t="n">
-        <v>481.2806174215179</v>
+        <v>481.2806174215181</v>
       </c>
       <c r="G31" t="n">
         <v>316.0519278736357</v>
@@ -6636,7 +6636,7 @@
         <v>2012.24131113717</v>
       </c>
       <c r="O31" t="n">
-        <v>2482.140491195855</v>
+        <v>2482.140491195854</v>
       </c>
       <c r="P31" t="n">
         <v>2872.627768482439</v>
@@ -6645,7 +6645,7 @@
         <v>3070.57793290825</v>
       </c>
       <c r="R31" t="n">
-        <v>3065.463270872082</v>
+        <v>3065.463270872081</v>
       </c>
       <c r="S31" t="n">
         <v>2912.540777280969</v>
@@ -6666,7 +6666,7 @@
         <v>1585.423668929156</v>
       </c>
       <c r="Y31" t="n">
-        <v>1358.003998243264</v>
+        <v>1358.003998243265</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2518.753319250561</v>
+        <v>2518.75331925056</v>
       </c>
       <c r="C32" t="n">
         <v>2080.610846433984</v>
       </c>
       <c r="D32" t="n">
-        <v>1644.701061608429</v>
+        <v>1644.701061608428</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.926316766724</v>
+        <v>1210.926316766723</v>
       </c>
       <c r="F32" t="n">
-        <v>783.0588871759304</v>
+        <v>783.058887175931</v>
       </c>
       <c r="G32" t="n">
-        <v>382.4693778093795</v>
+        <v>382.4693778093797</v>
       </c>
       <c r="H32" t="n">
         <v>101.6174510394051</v>
@@ -6709,7 +6709,7 @@
         <v>1694.392990702589</v>
       </c>
       <c r="M32" t="n">
-        <v>1833.502770857322</v>
+        <v>2032.643993310097</v>
       </c>
       <c r="N32" t="n">
         <v>2174.004715142531</v>
@@ -6727,19 +6727,19 @@
         <v>5080.872551970256</v>
       </c>
       <c r="S32" t="n">
-        <v>5015.640315961189</v>
+        <v>5015.640315961188</v>
       </c>
       <c r="T32" t="n">
-        <v>4799.111518433813</v>
+        <v>4799.111518433812</v>
       </c>
       <c r="U32" t="n">
-        <v>4539.953881511645</v>
+        <v>4539.953881511644</v>
       </c>
       <c r="V32" t="n">
-        <v>4177.336931445471</v>
+        <v>4177.33693144547</v>
       </c>
       <c r="W32" t="n">
-        <v>3772.481476856505</v>
+        <v>3772.481476856504</v>
       </c>
       <c r="X32" t="n">
         <v>3353.339013435815</v>
@@ -6779,28 +6779,28 @@
         <v>116.2116974506014</v>
       </c>
       <c r="J33" t="n">
-        <v>156.259425086726</v>
+        <v>452.1764144341287</v>
       </c>
       <c r="K33" t="n">
-        <v>224.7073703250715</v>
+        <v>520.6243596724742</v>
       </c>
       <c r="L33" t="n">
-        <v>316.7440796991186</v>
+        <v>612.6610690465213</v>
       </c>
       <c r="M33" t="n">
-        <v>424.1465784475016</v>
+        <v>720.0635677949044</v>
       </c>
       <c r="N33" t="n">
-        <v>534.391701751645</v>
+        <v>830.3086910990478</v>
       </c>
       <c r="O33" t="n">
-        <v>769.3499910364766</v>
+        <v>931.1614407892595</v>
       </c>
       <c r="P33" t="n">
-        <v>1670.016380477542</v>
+        <v>1012.104663751127</v>
       </c>
       <c r="Q33" t="n">
-        <v>1724.124781439511</v>
+        <v>1606.952003345172</v>
       </c>
       <c r="R33" t="n">
         <v>1750.44276261109</v>
@@ -6837,16 +6837,16 @@
         <v>1166.185379524277</v>
       </c>
       <c r="C34" t="n">
-        <v>993.6236680075021</v>
+        <v>993.6236680075018</v>
       </c>
       <c r="D34" t="n">
-        <v>827.7456752090249</v>
+        <v>827.7456752090245</v>
       </c>
       <c r="E34" t="n">
-        <v>657.9876714597622</v>
+        <v>657.9876714597617</v>
       </c>
       <c r="F34" t="n">
-        <v>481.2806174215184</v>
+        <v>481.2806174215179</v>
       </c>
       <c r="G34" t="n">
         <v>316.0519278736357</v>
@@ -6867,19 +6867,19 @@
         <v>1000.411483411038</v>
       </c>
       <c r="M34" t="n">
-        <v>1515.601209696128</v>
+        <v>1515.601209696129</v>
       </c>
       <c r="N34" t="n">
-        <v>2012.241311137169</v>
+        <v>2012.24131113717</v>
       </c>
       <c r="O34" t="n">
-        <v>2482.140491195853</v>
+        <v>2482.140491195854</v>
       </c>
       <c r="P34" t="n">
-        <v>2872.627768482438</v>
+        <v>2872.627768482439</v>
       </c>
       <c r="Q34" t="n">
-        <v>3070.577932908249</v>
+        <v>3070.57793290825</v>
       </c>
       <c r="R34" t="n">
         <v>3065.463270872082</v>
@@ -6897,7 +6897,7 @@
         <v>2102.841828009452</v>
       </c>
       <c r="W34" t="n">
-        <v>1830.815423595744</v>
+        <v>1830.815423595743</v>
       </c>
       <c r="X34" t="n">
         <v>1585.423668929156</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2518.75331925056</v>
+        <v>2518.753319250559</v>
       </c>
       <c r="C35" t="n">
         <v>2080.610846433983</v>
       </c>
       <c r="D35" t="n">
-        <v>1644.701061608428</v>
+        <v>1644.701061608427</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.926316766723</v>
+        <v>1210.926316766722</v>
       </c>
       <c r="F35" t="n">
-        <v>783.0588871759304</v>
+        <v>783.0588871759303</v>
       </c>
       <c r="G35" t="n">
         <v>382.4693778093795</v>
@@ -6937,28 +6937,28 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J35" t="n">
-        <v>198.9917240099467</v>
+        <v>634.2464114628646</v>
       </c>
       <c r="K35" t="n">
-        <v>1134.117457212251</v>
+        <v>735.0218527069908</v>
       </c>
       <c r="L35" t="n">
-        <v>1259.138303249671</v>
+        <v>860.0426987444106</v>
       </c>
       <c r="M35" t="n">
-        <v>1398.248083404404</v>
+        <v>2117.558655357049</v>
       </c>
       <c r="N35" t="n">
-        <v>2655.764040017042</v>
+        <v>3375.074611969687</v>
       </c>
       <c r="O35" t="n">
-        <v>3769.42662769558</v>
+        <v>4488.737199648226</v>
       </c>
       <c r="P35" t="n">
-        <v>4711.661087458327</v>
+        <v>4776.400548542411</v>
       </c>
       <c r="Q35" t="n">
-        <v>5031.107232071657</v>
+        <v>4861.9531673186</v>
       </c>
       <c r="R35" t="n">
         <v>5080.872551970256</v>
@@ -6967,19 +6967,19 @@
         <v>5015.640315961188</v>
       </c>
       <c r="T35" t="n">
-        <v>4799.111518433812</v>
+        <v>4799.111518433813</v>
       </c>
       <c r="U35" t="n">
-        <v>4539.953881511644</v>
+        <v>4539.953881511643</v>
       </c>
       <c r="V35" t="n">
-        <v>4177.33693144547</v>
+        <v>4177.336931445469</v>
       </c>
       <c r="W35" t="n">
-        <v>3772.481476856503</v>
+        <v>3772.481476856502</v>
       </c>
       <c r="X35" t="n">
-        <v>3353.339013435814</v>
+        <v>3353.339013435813</v>
       </c>
       <c r="Y35" t="n">
         <v>2945.052889735467</v>
@@ -7013,31 +7013,31 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I36" t="n">
-        <v>116.2116974506014</v>
+        <v>142.275370611059</v>
       </c>
       <c r="J36" t="n">
-        <v>156.259425086726</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K36" t="n">
-        <v>224.7073703250715</v>
+        <v>1061.36329830455</v>
       </c>
       <c r="L36" t="n">
-        <v>1270.572785772937</v>
+        <v>1153.400007678597</v>
       </c>
       <c r="M36" t="n">
-        <v>1377.97528452132</v>
+        <v>1260.80250642698</v>
       </c>
       <c r="N36" t="n">
-        <v>1488.220407825463</v>
+        <v>1371.047629731123</v>
       </c>
       <c r="O36" t="n">
-        <v>1589.073157515675</v>
+        <v>1471.900379421335</v>
       </c>
       <c r="P36" t="n">
-        <v>1670.016380477542</v>
+        <v>1552.843602383203</v>
       </c>
       <c r="Q36" t="n">
-        <v>1724.124781439511</v>
+        <v>1606.952003345172</v>
       </c>
       <c r="R36" t="n">
         <v>1750.44276261109</v>
@@ -7110,7 +7110,7 @@
         <v>2012.24131113717</v>
       </c>
       <c r="O37" t="n">
-        <v>2482.140491195855</v>
+        <v>2482.140491195854</v>
       </c>
       <c r="P37" t="n">
         <v>2872.627768482439</v>
@@ -7180,31 +7180,31 @@
         <v>1569.372144665169</v>
       </c>
       <c r="L38" t="n">
-        <v>2769.452956955448</v>
+        <v>1893.534213155364</v>
       </c>
       <c r="M38" t="n">
-        <v>2908.562737110181</v>
+        <v>2032.643993310097</v>
       </c>
       <c r="N38" t="n">
-        <v>3049.923458942616</v>
+        <v>2174.004715142531</v>
       </c>
       <c r="O38" t="n">
-        <v>4163.586046621154</v>
+        <v>3287.66730282107</v>
       </c>
       <c r="P38" t="n">
-        <v>4945.554613295468</v>
+        <v>4229.901762583817</v>
       </c>
       <c r="Q38" t="n">
-        <v>5031.107232071657</v>
+        <v>4861.9531673186</v>
       </c>
       <c r="R38" t="n">
         <v>5080.872551970256</v>
       </c>
       <c r="S38" t="n">
-        <v>5015.640315961189</v>
+        <v>5015.640315961188</v>
       </c>
       <c r="T38" t="n">
-        <v>4799.111518433813</v>
+        <v>4799.111518433812</v>
       </c>
       <c r="U38" t="n">
         <v>4539.953881511644</v>
@@ -7213,13 +7213,13 @@
         <v>4177.33693144547</v>
       </c>
       <c r="W38" t="n">
-        <v>3772.481476856503</v>
+        <v>3772.481476856504</v>
       </c>
       <c r="X38" t="n">
         <v>3353.339013435814</v>
       </c>
       <c r="Y38" t="n">
-        <v>2945.052889735468</v>
+        <v>2945.052889735467</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>116.2116974506014</v>
       </c>
       <c r="J39" t="n">
-        <v>480.8177500529383</v>
+        <v>452.1764144341287</v>
       </c>
       <c r="K39" t="n">
-        <v>549.2656952912837</v>
+        <v>520.6243596724742</v>
       </c>
       <c r="L39" t="n">
-        <v>641.3024046653309</v>
+        <v>612.6610690465213</v>
       </c>
       <c r="M39" t="n">
-        <v>748.7049034137139</v>
+        <v>720.0635677949044</v>
       </c>
       <c r="N39" t="n">
-        <v>858.9500267178573</v>
+        <v>830.3086910990478</v>
       </c>
       <c r="O39" t="n">
-        <v>959.802776408069</v>
+        <v>931.1614407892595</v>
       </c>
       <c r="P39" t="n">
-        <v>1040.745999369937</v>
+        <v>1012.104663751127</v>
       </c>
       <c r="Q39" t="n">
         <v>1606.952003345172</v>
@@ -7317,7 +7317,7 @@
         <v>827.7456752090245</v>
       </c>
       <c r="E40" t="n">
-        <v>657.9876714597617</v>
+        <v>657.9876714597618</v>
       </c>
       <c r="F40" t="n">
         <v>481.2806174215179</v>
@@ -7344,16 +7344,16 @@
         <v>1515.601209696129</v>
       </c>
       <c r="N40" t="n">
-        <v>2012.24131113717</v>
+        <v>2012.241311137171</v>
       </c>
       <c r="O40" t="n">
-        <v>2482.140491195854</v>
+        <v>2482.140491195855</v>
       </c>
       <c r="P40" t="n">
         <v>2872.627768482439</v>
       </c>
       <c r="Q40" t="n">
-        <v>3070.57793290825</v>
+        <v>3070.577932908249</v>
       </c>
       <c r="R40" t="n">
         <v>3065.463270872081</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2214.410831623822</v>
+        <v>1668.615149343623</v>
       </c>
       <c r="C41" t="n">
-        <v>1776.268358807245</v>
+        <v>1668.615149343623</v>
       </c>
       <c r="D41" t="n">
-        <v>1340.35857398169</v>
+        <v>1621.210500751664</v>
       </c>
       <c r="E41" t="n">
-        <v>906.5838291399848</v>
+        <v>1187.435755909959</v>
       </c>
       <c r="F41" t="n">
-        <v>478.7163995491925</v>
+        <v>759.568326319167</v>
       </c>
       <c r="G41" t="n">
-        <v>78.12689018264163</v>
+        <v>358.9788169526161</v>
       </c>
       <c r="H41" t="n">
-        <v>78.12689018264163</v>
+        <v>78.12689018264165</v>
       </c>
       <c r="I41" t="n">
         <v>108.2610888134436</v>
@@ -7423,40 +7423,40 @@
         <v>1810.012210000559</v>
       </c>
       <c r="N41" t="n">
-        <v>2148.810403627721</v>
+        <v>1951.372931832993</v>
       </c>
       <c r="O41" t="n">
-        <v>2282.293324735953</v>
+        <v>2113.139259982896</v>
       </c>
       <c r="P41" t="n">
-        <v>3224.5277844987</v>
+        <v>3055.373719745643</v>
       </c>
       <c r="Q41" t="n">
-        <v>3856.579189233483</v>
+        <v>3687.425124480427</v>
       </c>
       <c r="R41" t="n">
-        <v>3906.344509132081</v>
+        <v>3906.344509132082</v>
       </c>
       <c r="S41" t="n">
-        <v>3906.344509132081</v>
+        <v>3906.344509132082</v>
       </c>
       <c r="T41" t="n">
-        <v>3906.344509132081</v>
+        <v>3689.815711604707</v>
       </c>
       <c r="U41" t="n">
-        <v>3906.344509132081</v>
+        <v>3689.815711604707</v>
       </c>
       <c r="V41" t="n">
-        <v>3872.994443818732</v>
+        <v>3327.198761538533</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.138989229766</v>
+        <v>2922.343306949567</v>
       </c>
       <c r="X41" t="n">
-        <v>3048.996525809077</v>
+        <v>2503.200843528878</v>
       </c>
       <c r="Y41" t="n">
-        <v>2640.71040210873</v>
+        <v>2094.914719828531</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>579.6891979750516</v>
       </c>
       <c r="C42" t="n">
-        <v>473.2327368116938</v>
+        <v>473.2327368116939</v>
       </c>
       <c r="D42" t="n">
         <v>378.1424479582471</v>
@@ -7478,37 +7478,37 @@
         <v>284.0220332852008</v>
       </c>
       <c r="F42" t="n">
-        <v>200.6381949013624</v>
+        <v>200.6381949013625</v>
       </c>
       <c r="G42" t="n">
         <v>115.6855955713921</v>
       </c>
       <c r="H42" t="n">
-        <v>78.12689018264163</v>
+        <v>78.12689018264165</v>
       </c>
       <c r="I42" t="n">
-        <v>118.7848097542955</v>
+        <v>92.72113659383788</v>
       </c>
       <c r="J42" t="n">
-        <v>158.8325373904201</v>
+        <v>428.685853577365</v>
       </c>
       <c r="K42" t="n">
-        <v>227.2804826287656</v>
+        <v>497.1337988157105</v>
       </c>
       <c r="L42" t="n">
-        <v>319.3171920028127</v>
+        <v>589.1705081897577</v>
       </c>
       <c r="M42" t="n">
-        <v>426.7196907511957</v>
+        <v>696.5730069381407</v>
       </c>
       <c r="N42" t="n">
-        <v>536.9648140553392</v>
+        <v>806.818130242284</v>
       </c>
       <c r="O42" t="n">
-        <v>637.8175637455508</v>
+        <v>907.6708799324958</v>
       </c>
       <c r="P42" t="n">
-        <v>1529.353041526439</v>
+        <v>988.6141028943636</v>
       </c>
       <c r="Q42" t="n">
         <v>1583.461442488408</v>
@@ -7554,10 +7554,10 @@
         <v>804.255114352261</v>
       </c>
       <c r="E43" t="n">
-        <v>634.4971106029982</v>
+        <v>634.4971106029983</v>
       </c>
       <c r="F43" t="n">
-        <v>457.7900565647544</v>
+        <v>457.7900565647545</v>
       </c>
       <c r="G43" t="n">
         <v>292.5613670168722</v>
@@ -7566,7 +7566,7 @@
         <v>155.8829067700801</v>
       </c>
       <c r="I43" t="n">
-        <v>78.12689018264163</v>
+        <v>78.12689018264165</v>
       </c>
       <c r="J43" t="n">
         <v>189.8312326722277</v>
@@ -7575,13 +7575,13 @@
         <v>505.8772172179259</v>
       </c>
       <c r="L43" t="n">
-        <v>976.9209225542749</v>
+        <v>976.920922554275</v>
       </c>
       <c r="M43" t="n">
         <v>1492.110648839365</v>
       </c>
       <c r="N43" t="n">
-        <v>1988.750750280406</v>
+        <v>1988.750750280407</v>
       </c>
       <c r="O43" t="n">
         <v>2458.649930339091</v>
@@ -7596,13 +7596,13 @@
         <v>3041.972710015318</v>
       </c>
       <c r="S43" t="n">
-        <v>2889.050216424206</v>
+        <v>2889.050216424205</v>
       </c>
       <c r="T43" t="n">
-        <v>2644.719998642264</v>
+        <v>2644.719998642263</v>
       </c>
       <c r="U43" t="n">
-        <v>2366.306775282258</v>
+        <v>2366.306775282257</v>
       </c>
       <c r="V43" t="n">
         <v>2079.351267152688</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1668.615149343622</v>
+        <v>2214.410831623822</v>
       </c>
       <c r="C44" t="n">
-        <v>1230.472676527046</v>
+        <v>1776.268358807245</v>
       </c>
       <c r="D44" t="n">
-        <v>794.5628917014901</v>
+        <v>1340.35857398169</v>
       </c>
       <c r="E44" t="n">
-        <v>360.7881468597853</v>
+        <v>906.5838291399848</v>
       </c>
       <c r="F44" t="n">
-        <v>78.12689018264163</v>
+        <v>478.7163995491925</v>
       </c>
       <c r="G44" t="n">
-        <v>78.12689018264163</v>
+        <v>78.12689018264165</v>
       </c>
       <c r="H44" t="n">
-        <v>78.12689018264163</v>
+        <v>78.12689018264165</v>
       </c>
       <c r="I44" t="n">
         <v>108.2610888134436</v>
@@ -7654,46 +7654,46 @@
         <v>1545.881583808405</v>
       </c>
       <c r="L44" t="n">
-        <v>1868.339901640553</v>
+        <v>1670.902429845825</v>
       </c>
       <c r="M44" t="n">
-        <v>2007.449681795286</v>
+        <v>1810.012210000559</v>
       </c>
       <c r="N44" t="n">
-        <v>2148.810403627721</v>
+        <v>1951.372931832993</v>
       </c>
       <c r="O44" t="n">
-        <v>2282.293324735953</v>
+        <v>2659.638045941491</v>
       </c>
       <c r="P44" t="n">
-        <v>3224.5277844987</v>
+        <v>3601.872505704238</v>
       </c>
       <c r="Q44" t="n">
-        <v>3856.579189233483</v>
+        <v>3687.425124480427</v>
       </c>
       <c r="R44" t="n">
-        <v>3906.344509132081</v>
+        <v>3906.344509132082</v>
       </c>
       <c r="S44" t="n">
-        <v>3906.344509132081</v>
+        <v>3906.344509132082</v>
       </c>
       <c r="T44" t="n">
-        <v>3689.815711604706</v>
+        <v>3906.344509132082</v>
       </c>
       <c r="U44" t="n">
-        <v>3689.815711604706</v>
+        <v>3906.344509132082</v>
       </c>
       <c r="V44" t="n">
-        <v>3327.198761538532</v>
+        <v>3872.994443818732</v>
       </c>
       <c r="W44" t="n">
-        <v>2922.343306949566</v>
+        <v>3468.138989229766</v>
       </c>
       <c r="X44" t="n">
-        <v>2503.200843528877</v>
+        <v>3048.996525809077</v>
       </c>
       <c r="Y44" t="n">
-        <v>2094.91471982853</v>
+        <v>2640.71040210873</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>579.6891979750516</v>
       </c>
       <c r="C45" t="n">
-        <v>473.2327368116938</v>
+        <v>473.2327368116939</v>
       </c>
       <c r="D45" t="n">
         <v>378.1424479582471</v>
@@ -7715,40 +7715,40 @@
         <v>284.0220332852008</v>
       </c>
       <c r="F45" t="n">
-        <v>200.6381949013624</v>
+        <v>200.6381949013625</v>
       </c>
       <c r="G45" t="n">
         <v>115.6855955713921</v>
       </c>
       <c r="H45" t="n">
-        <v>78.12689018264163</v>
+        <v>78.12689018264165</v>
       </c>
       <c r="I45" t="n">
-        <v>92.72113659383787</v>
+        <v>92.72113659383788</v>
       </c>
       <c r="J45" t="n">
-        <v>457.3271891961749</v>
+        <v>428.685853577365</v>
       </c>
       <c r="K45" t="n">
-        <v>1155.045515542126</v>
+        <v>497.1337988157105</v>
       </c>
       <c r="L45" t="n">
-        <v>1247.082224916173</v>
+        <v>589.1705081897577</v>
       </c>
       <c r="M45" t="n">
-        <v>1354.484723664556</v>
+        <v>696.5730069381407</v>
       </c>
       <c r="N45" t="n">
-        <v>1464.7298469687</v>
+        <v>806.818130242284</v>
       </c>
       <c r="O45" t="n">
-        <v>1565.582596658911</v>
+        <v>907.6708799324958</v>
       </c>
       <c r="P45" t="n">
-        <v>1646.525819620779</v>
+        <v>988.6141028943636</v>
       </c>
       <c r="Q45" t="n">
-        <v>1700.634220582748</v>
+        <v>1583.461442488408</v>
       </c>
       <c r="R45" t="n">
         <v>1726.952201754327</v>
@@ -7785,43 +7785,43 @@
         <v>1142.694818667513</v>
       </c>
       <c r="C46" t="n">
-        <v>970.1331071507378</v>
+        <v>970.1331071507383</v>
       </c>
       <c r="D46" t="n">
-        <v>804.2551143522605</v>
+        <v>804.255114352261</v>
       </c>
       <c r="E46" t="n">
-        <v>634.4971106029977</v>
+        <v>634.4971106029983</v>
       </c>
       <c r="F46" t="n">
-        <v>457.790056564754</v>
+        <v>457.7900565647545</v>
       </c>
       <c r="G46" t="n">
-        <v>292.5613670168717</v>
+        <v>292.5613670168722</v>
       </c>
       <c r="H46" t="n">
         <v>155.8829067700801</v>
       </c>
       <c r="I46" t="n">
-        <v>78.12689018264163</v>
+        <v>78.12689018264165</v>
       </c>
       <c r="J46" t="n">
-        <v>189.8312326722277</v>
+        <v>189.8312326722271</v>
       </c>
       <c r="K46" t="n">
-        <v>505.8772172179259</v>
+        <v>505.8772172179253</v>
       </c>
       <c r="L46" t="n">
-        <v>976.9209225542749</v>
+        <v>976.9209225542742</v>
       </c>
       <c r="M46" t="n">
-        <v>1492.110648839365</v>
+        <v>1492.110648839364</v>
       </c>
       <c r="N46" t="n">
         <v>1988.750750280406</v>
       </c>
       <c r="O46" t="n">
-        <v>2458.649930339091</v>
+        <v>2458.64993033909</v>
       </c>
       <c r="P46" t="n">
         <v>2849.137207625675</v>
@@ -7851,7 +7851,7 @@
         <v>1561.933108072392</v>
       </c>
       <c r="Y46" t="n">
-        <v>1334.5134373865</v>
+        <v>1334.513437386501</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>41.31500304752735</v>
@@ -8060,14 +8060,14 @@
         <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L3" t="n">
+        <v>41.31500304752734</v>
+      </c>
+      <c r="M3" t="n">
         <v>13.31876740878121</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O4" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P5" t="n">
-        <v>39.645709995102</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8303,19 +8303,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.64570999510202</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="P6" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -8376,25 +8376,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="L7" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="N7" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P8" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="P9" t="n">
-        <v>13.31876740878121</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>39.64570999510202</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>850.3024444169398</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>833.7975193714706</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>343.678642312233</v>
+        <v>28.56909802189011</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>490.9433634876848</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>490.9433634876852</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8938,16 +8938,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>581.6112525823091</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>841.754893840362</v>
+        <v>28.56909802189011</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>490.9433634876848</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>490.9433634876852</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9169,16 +9169,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1118.954827759048</v>
+        <v>1043.930822637326</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>298.9060498458614</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>517.2703060740059</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1129.703208543338</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1127.429530081014</v>
+        <v>201.1527499522981</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>138.1499298279423</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>298.9060498458613</v>
+        <v>298.9060498458614</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>201.1527499522981</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9658,10 +9658,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>277.7664589540263</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>417.2623913552955</v>
+        <v>490.943363487685</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,16 +9880,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>786.0075920917275</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1129.703208543338</v>
+        <v>1129.70320854334</v>
       </c>
       <c r="N26" t="n">
-        <v>1127.429530081014</v>
+        <v>1127.429530081016</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>690.1689055436973</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>298.9060498458612</v>
       </c>
       <c r="K27" t="n">
-        <v>417.2623913552956</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1129.703208543338</v>
+        <v>201.1527499522981</v>
       </c>
       <c r="N29" t="n">
-        <v>1076.760480926886</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10132,10 +10132,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>298.9060498458614</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>417.2623913552956</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>201.1527499522981</v>
       </c>
       <c r="N32" t="n">
-        <v>201.1527499522981</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>298.9060498458614</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>135.4601410046665</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1129.703208543338</v>
       </c>
       <c r="N35" t="n">
         <v>1127.429530081014</v>
@@ -10603,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>175.4937009745809</v>
       </c>
       <c r="Q35" t="n">
-        <v>236.256086704183</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>490.943363487685</v>
       </c>
       <c r="L36" t="n">
-        <v>963.4633394685031</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>201.1527499522981</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>674.7919007524879</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>298.9060498458614</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>517.2703060740062</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>199.4317896916441</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>28.56909802189011</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>298.9060498458612</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>818.7800553727481</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11302,7 +11302,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>199.4317896916441</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>580.5880737376424</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>298.9060498458612</v>
       </c>
       <c r="K45" t="n">
-        <v>635.6266475834401</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>199.8143609442268</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.57991364897669</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>320.3728059117693</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>185.9566621853567</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>278.0434075022746</v>
+        <v>245.0268428420582</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T14" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>384.6200848712604</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T41" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.5660605529466</v>
       </c>
       <c r="V41" t="n">
-        <v>325.974215905296</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>143.7541111845121</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>278.0434075022746</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U44" t="n">
         <v>256.5660605529466</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>325.9742159052951</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>550975.7777456652</v>
+        <v>550975.7777456653</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>550975.7777456652</v>
+        <v>550975.7777456651</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>450554.1869753883</v>
+        <v>450554.1869753884</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904085</v>
       </c>
       <c r="C2" t="n">
         <v>536147.3198904085</v>
@@ -26325,34 +26325,34 @@
         <v>445440.9621603456</v>
       </c>
       <c r="F2" t="n">
-        <v>445440.9621603455</v>
+        <v>445440.9621603456</v>
       </c>
       <c r="G2" t="n">
+        <v>536147.3198904084</v>
+      </c>
+      <c r="H2" t="n">
         <v>536147.3198904085</v>
       </c>
-      <c r="H2" t="n">
-        <v>536147.3198904087</v>
-      </c>
       <c r="I2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904083</v>
       </c>
       <c r="J2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.319890409</v>
       </c>
       <c r="K2" t="n">
         <v>536147.3198904085</v>
       </c>
       <c r="L2" t="n">
-        <v>536147.3198904085</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="M2" t="n">
         <v>536147.3198904085</v>
       </c>
       <c r="N2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904085</v>
       </c>
       <c r="O2" t="n">
-        <v>445440.9621603454</v>
+        <v>445440.9621603456</v>
       </c>
       <c r="P2" t="n">
         <v>445440.9621603455</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80480.12965532526</v>
+        <v>80480.1296553252</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.8226573672</v>
+        <v>10809.82265736773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>301049.4928748383</v>
       </c>
       <c r="C4" t="n">
+        <v>301049.4928748383</v>
+      </c>
+      <c r="D4" t="n">
         <v>301049.4928748382</v>
-      </c>
-      <c r="D4" t="n">
-        <v>301049.4928748383</v>
       </c>
       <c r="E4" t="n">
         <v>117149.0583358019</v>
       </c>
       <c r="F4" t="n">
-        <v>117149.058335802</v>
+        <v>117149.0583358019</v>
       </c>
       <c r="G4" t="n">
         <v>149679.702904843</v>
       </c>
       <c r="H4" t="n">
-        <v>149679.7029048431</v>
+        <v>149679.702904843</v>
       </c>
       <c r="I4" t="n">
-        <v>149679.7029048431</v>
+        <v>149679.702904843</v>
       </c>
       <c r="J4" t="n">
-        <v>149679.702904843</v>
+        <v>149679.7029048432</v>
       </c>
       <c r="K4" t="n">
         <v>149679.702904843</v>
@@ -26493,25 +26493,25 @@
         <v>81568.75768887246</v>
       </c>
       <c r="J5" t="n">
-        <v>81568.75768887244</v>
+        <v>81568.75768887257</v>
       </c>
       <c r="K5" t="n">
-        <v>81568.75768887244</v>
+        <v>81568.75768887246</v>
       </c>
       <c r="L5" t="n">
-        <v>81568.75768887244</v>
+        <v>81568.75768887246</v>
       </c>
       <c r="M5" t="n">
-        <v>81568.75768887244</v>
+        <v>81568.75768887246</v>
       </c>
       <c r="N5" t="n">
-        <v>81568.75768887244</v>
+        <v>81568.75768887246</v>
       </c>
       <c r="O5" t="n">
-        <v>63715.9314377322</v>
+        <v>63715.93143773222</v>
       </c>
       <c r="P5" t="n">
-        <v>63715.9314377322</v>
+        <v>63715.93143773222</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>185112.667063984</v>
+        <v>185112.6670639841</v>
       </c>
       <c r="C6" t="n">
         <v>198958.2748302806</v>
@@ -26530,40 +26530,40 @@
         <v>198958.2748302806</v>
       </c>
       <c r="E6" t="n">
-        <v>-174600.3277066734</v>
+        <v>-174827.0936009986</v>
       </c>
       <c r="F6" t="n">
-        <v>264575.9723868113</v>
+        <v>264349.2064924862</v>
       </c>
       <c r="G6" t="n">
-        <v>224418.7296413678</v>
+        <v>224418.7296413677</v>
       </c>
       <c r="H6" t="n">
-        <v>304898.8592966932</v>
+        <v>304898.8592966931</v>
       </c>
       <c r="I6" t="n">
-        <v>304898.8592966929</v>
+        <v>304898.8592966928</v>
       </c>
       <c r="J6" t="n">
         <v>294089.0366393256</v>
       </c>
       <c r="K6" t="n">
+        <v>304898.8592966935</v>
+      </c>
+      <c r="L6" t="n">
+        <v>304898.8592966929</v>
+      </c>
+      <c r="M6" t="n">
+        <v>71825.5540527112</v>
+      </c>
+      <c r="N6" t="n">
         <v>304898.8592966931</v>
       </c>
-      <c r="L6" t="n">
-        <v>304898.8592966931</v>
-      </c>
-      <c r="M6" t="n">
-        <v>71825.55405271123</v>
-      </c>
-      <c r="N6" t="n">
-        <v>304898.859296693</v>
-      </c>
       <c r="O6" t="n">
-        <v>264575.9723868113</v>
+        <v>264349.2064924864</v>
       </c>
       <c r="P6" t="n">
-        <v>264575.9723868113</v>
+        <v>264349.2064924861</v>
       </c>
     </row>
   </sheetData>
@@ -26813,7 +26813,7 @@
         <v>1270.218137992564</v>
       </c>
       <c r="J4" t="n">
-        <v>1270.218137992564</v>
+        <v>1270.218137992566</v>
       </c>
       <c r="K4" t="n">
         <v>1270.218137992564</v>
@@ -26828,10 +26828,10 @@
         <v>1270.218137992564</v>
       </c>
       <c r="O4" t="n">
-        <v>976.5861272830203</v>
+        <v>976.5861272830206</v>
       </c>
       <c r="P4" t="n">
-        <v>976.5861272830203</v>
+        <v>976.5861272830206</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>293.6320107095436</v>
+        <v>293.6320107095434</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>41.31500304752717</v>
+        <v>41.31500304752922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>293.6320107095436</v>
+        <v>293.6320107095434</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C3" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
@@ -27472,7 +27472,7 @@
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>43.21623578895061</v>
+        <v>48.14098415221586</v>
       </c>
       <c r="H3" t="n">
         <v>0.003292614422299778</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
-        <v>138.1829268457693</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
         <v>197.1263427586206</v>
@@ -27539,10 +27539,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>149.0326012679123</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27551,7 +27551,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>122.6203591769033</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27593,19 +27593,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>234.3336676918984</v>
       </c>
       <c r="V4" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>232.9158856853093</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C6" t="n">
         <v>105.3918965517241</v>
@@ -27712,7 +27712,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>4.928040977687559</v>
+        <v>0.003292614422299778</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
         <v>87.56185418517705</v>
       </c>
       <c r="U6" t="n">
-        <v>133.258178482504</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V6" t="n">
         <v>197.1263427586206</v>
@@ -27763,7 +27763,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.2209214285714</v>
+        <v>88.83066674430933</v>
       </c>
     </row>
     <row r="7">
@@ -27776,22 +27776,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>155.6494827990271</v>
       </c>
       <c r="D7" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>148.7487506218503</v>
+        <v>122.6203591769033</v>
       </c>
       <c r="H7" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>46.45834668554406</v>
@@ -27937,19 +27937,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>46.15974531573791</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T9" t="n">
         <v>128.8768572327044</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>116.9285067192467</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28028,10 +28028,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>142.462343412403</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -28070,7 +28070,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>268.8993414456936</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -30878,7 +30878,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-6.285556667791943e-13</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H11" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I11" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J11" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K11" t="n">
         <v>101.7933749940668</v>
@@ -31770,25 +31770,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M11" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N11" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O11" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P11" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q11" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R11" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S11" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T11" t="n">
         <v>3.503045303589929</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H12" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I12" t="n">
         <v>14.74166304161237</v>
@@ -31843,10 +31843,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K12" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L12" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M12" t="n">
         <v>108.4873724731142</v>
@@ -31858,22 +31858,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P12" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R12" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S12" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T12" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,7 +31913,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H13" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I13" t="n">
         <v>10.79489331150735</v>
@@ -31922,16 +31922,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K13" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L13" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M13" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N13" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O13" t="n">
         <v>50.73730387161918</v>
@@ -31943,13 +31943,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R13" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S13" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T13" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U13" t="n">
         <v>0.01957961301966268</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H14" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I14" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J14" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K14" t="n">
         <v>101.7933749940668</v>
@@ -32007,25 +32007,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M14" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N14" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O14" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P14" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q14" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R14" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S14" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T14" t="n">
         <v>3.503045303589929</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H15" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I15" t="n">
         <v>14.74166304161237</v>
@@ -32080,10 +32080,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K15" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L15" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M15" t="n">
         <v>108.4873724731142</v>
@@ -32095,22 +32095,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P15" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R15" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S15" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T15" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,7 +32150,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H16" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I16" t="n">
         <v>10.79489331150735</v>
@@ -32159,16 +32159,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K16" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L16" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M16" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N16" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O16" t="n">
         <v>50.73730387161918</v>
@@ -32180,13 +32180,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R16" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S16" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T16" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U16" t="n">
         <v>0.01957961301966268</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H17" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I17" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J17" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K17" t="n">
         <v>101.7933749940668</v>
@@ -32244,25 +32244,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M17" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N17" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O17" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P17" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q17" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R17" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S17" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T17" t="n">
         <v>3.503045303589929</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H18" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I18" t="n">
         <v>14.74166304161237</v>
@@ -32317,10 +32317,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K18" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L18" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M18" t="n">
         <v>108.4873724731142</v>
@@ -32332,22 +32332,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P18" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R18" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S18" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T18" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,7 +32387,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H19" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I19" t="n">
         <v>10.79489331150735</v>
@@ -32396,16 +32396,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K19" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L19" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M19" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N19" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O19" t="n">
         <v>50.73730387161918</v>
@@ -32417,13 +32417,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R19" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S19" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T19" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U19" t="n">
         <v>0.01957961301966268</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H20" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I20" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J20" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K20" t="n">
         <v>101.7933749940668</v>
@@ -32481,25 +32481,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M20" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N20" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O20" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P20" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q20" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R20" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S20" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T20" t="n">
         <v>3.503045303589929</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H21" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I21" t="n">
         <v>14.74166304161237</v>
@@ -32554,10 +32554,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K21" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L21" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M21" t="n">
         <v>108.4873724731142</v>
@@ -32569,22 +32569,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P21" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R21" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S21" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T21" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,7 +32624,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H22" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I22" t="n">
         <v>10.79489331150735</v>
@@ -32633,16 +32633,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K22" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L22" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M22" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N22" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O22" t="n">
         <v>50.73730387161918</v>
@@ -32654,13 +32654,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R22" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S22" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T22" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U22" t="n">
         <v>0.01957961301966268</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H23" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I23" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J23" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K23" t="n">
         <v>101.7933749940668</v>
@@ -32718,25 +32718,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M23" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N23" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O23" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P23" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q23" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R23" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S23" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T23" t="n">
         <v>3.503045303589929</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H24" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I24" t="n">
         <v>14.74166304161237</v>
@@ -32791,10 +32791,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K24" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L24" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M24" t="n">
         <v>108.4873724731142</v>
@@ -32806,22 +32806,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P24" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R24" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S24" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T24" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,7 +32861,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H25" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I25" t="n">
         <v>10.79489331150735</v>
@@ -32870,16 +32870,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K25" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L25" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M25" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N25" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O25" t="n">
         <v>50.73730387161918</v>
@@ -32891,13 +32891,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R25" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S25" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T25" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U25" t="n">
         <v>0.01957961301966268</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H26" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I26" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J26" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K26" t="n">
         <v>101.7933749940668</v>
@@ -32955,25 +32955,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M26" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N26" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O26" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P26" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R26" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S26" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T26" t="n">
         <v>3.503045303589929</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H27" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I27" t="n">
         <v>14.74166304161237</v>
@@ -33028,10 +33028,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K27" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L27" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M27" t="n">
         <v>108.4873724731142</v>
@@ -33043,22 +33043,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P27" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R27" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S27" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T27" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,7 +33098,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H28" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I28" t="n">
         <v>10.79489331150735</v>
@@ -33107,16 +33107,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K28" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L28" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M28" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N28" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O28" t="n">
         <v>50.73730387161918</v>
@@ -33128,13 +33128,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R28" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S28" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T28" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U28" t="n">
         <v>0.01957961301966268</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H29" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I29" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J29" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K29" t="n">
         <v>101.7933749940668</v>
@@ -33192,25 +33192,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M29" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N29" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O29" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P29" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R29" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S29" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T29" t="n">
         <v>3.503045303589929</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H30" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I30" t="n">
         <v>14.74166304161237</v>
@@ -33265,10 +33265,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K30" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L30" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M30" t="n">
         <v>108.4873724731142</v>
@@ -33280,22 +33280,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P30" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R30" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S30" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T30" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,7 +33335,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H31" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I31" t="n">
         <v>10.79489331150735</v>
@@ -33344,16 +33344,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K31" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L31" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M31" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N31" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O31" t="n">
         <v>50.73730387161918</v>
@@ -33365,13 +33365,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R31" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S31" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T31" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U31" t="n">
         <v>0.01957961301966268</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H32" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I32" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J32" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K32" t="n">
         <v>101.7933749940668</v>
@@ -33429,25 +33429,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M32" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N32" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O32" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P32" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q32" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R32" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S32" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T32" t="n">
         <v>3.503045303589929</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H33" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I33" t="n">
         <v>14.74166304161237</v>
@@ -33502,10 +33502,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K33" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L33" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M33" t="n">
         <v>108.4873724731142</v>
@@ -33517,22 +33517,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P33" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R33" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S33" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T33" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,7 +33572,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H34" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I34" t="n">
         <v>10.79489331150735</v>
@@ -33581,16 +33581,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K34" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L34" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M34" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N34" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O34" t="n">
         <v>50.73730387161918</v>
@@ -33602,13 +33602,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R34" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S34" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T34" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U34" t="n">
         <v>0.01957961301966268</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H35" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I35" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J35" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K35" t="n">
         <v>101.7933749940668</v>
@@ -33666,25 +33666,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M35" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N35" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O35" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P35" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q35" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R35" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S35" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T35" t="n">
         <v>3.503045303589929</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H36" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I36" t="n">
         <v>14.74166304161237</v>
@@ -33739,10 +33739,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K36" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L36" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M36" t="n">
         <v>108.4873724731142</v>
@@ -33754,22 +33754,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P36" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R36" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S36" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T36" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,7 +33809,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H37" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I37" t="n">
         <v>10.79489331150735</v>
@@ -33818,16 +33818,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K37" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L37" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M37" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N37" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O37" t="n">
         <v>50.73730387161918</v>
@@ -33839,13 +33839,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R37" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S37" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T37" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U37" t="n">
         <v>0.01957961301966268</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H38" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I38" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J38" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K38" t="n">
         <v>101.7933749940668</v>
@@ -33903,25 +33903,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M38" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N38" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O38" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P38" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q38" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R38" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S38" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T38" t="n">
         <v>3.503045303589929</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H39" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I39" t="n">
         <v>14.74166304161237</v>
@@ -33976,10 +33976,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K39" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L39" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M39" t="n">
         <v>108.4873724731142</v>
@@ -33991,22 +33991,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P39" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R39" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S39" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T39" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,7 +34046,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H40" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I40" t="n">
         <v>10.79489331150735</v>
@@ -34055,16 +34055,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K40" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L40" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M40" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N40" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O40" t="n">
         <v>50.73730387161918</v>
@@ -34076,13 +34076,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R40" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S40" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T40" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U40" t="n">
         <v>0.01957961301966268</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H41" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I41" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J41" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K41" t="n">
         <v>101.7933749940668</v>
@@ -34140,25 +34140,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M41" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N41" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O41" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P41" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q41" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R41" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S41" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T41" t="n">
         <v>3.503045303589929</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H42" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I42" t="n">
         <v>14.74166304161237</v>
@@ -34213,10 +34213,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K42" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L42" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M42" t="n">
         <v>108.4873724731142</v>
@@ -34228,22 +34228,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P42" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R42" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S42" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T42" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,7 +34283,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H43" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I43" t="n">
         <v>10.79489331150735</v>
@@ -34292,16 +34292,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K43" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L43" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M43" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N43" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O43" t="n">
         <v>50.73730387161918</v>
@@ -34313,13 +34313,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R43" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S43" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T43" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U43" t="n">
         <v>0.01957961301966268</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H44" t="n">
-        <v>8.195445508941257</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I44" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J44" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K44" t="n">
         <v>101.7933749940668</v>
@@ -34377,25 +34377,25 @@
         <v>126.2836828660806</v>
       </c>
       <c r="M44" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N44" t="n">
         <v>142.78860791155</v>
       </c>
       <c r="O44" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P44" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q44" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R44" t="n">
-        <v>50.26799989757418</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S44" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T44" t="n">
         <v>3.503045303589929</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H45" t="n">
-        <v>4.135177327086679</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I45" t="n">
         <v>14.74166304161237</v>
@@ -34450,10 +34450,10 @@
         <v>40.45225013749962</v>
       </c>
       <c r="K45" t="n">
-        <v>69.13933862459139</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L45" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M45" t="n">
         <v>108.4873724731142</v>
@@ -34465,22 +34465,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P45" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R45" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S45" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T45" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,7 +34520,7 @@
         <v>0.3589595720271487</v>
       </c>
       <c r="H46" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I46" t="n">
         <v>10.79489331150735</v>
@@ -34529,16 +34529,16 @@
         <v>25.37844174231941</v>
       </c>
       <c r="K46" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L46" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M46" t="n">
         <v>56.26854454967386</v>
       </c>
       <c r="N46" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O46" t="n">
         <v>50.73730387161918</v>
@@ -34550,13 +34550,13 @@
         <v>30.05796925401879</v>
       </c>
       <c r="R46" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S46" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T46" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U46" t="n">
         <v>0.01957961301966268</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>41.31500304752735</v>
@@ -34780,14 +34780,14 @@
         <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L3" t="n">
+        <v>41.31500304752734</v>
+      </c>
+      <c r="M3" t="n">
         <v>13.31876740878121</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O4" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P5" t="n">
-        <v>39.645709995102</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.64570999510202</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="P6" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="L7" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="N7" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P8" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35263,19 +35263,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="P9" t="n">
-        <v>13.31876740878121</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>39.64570999510202</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35348,7 +35348,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J11" t="n">
-        <v>67.91926700983801</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K11" t="n">
-        <v>944.5714476790952</v>
+        <v>944.5714476790953</v>
       </c>
       <c r="L11" t="n">
-        <v>976.5861272830205</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M11" t="n">
         <v>140.5149294492257</v>
       </c>
       <c r="N11" t="n">
-        <v>976.5861272830207</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O11" t="n">
-        <v>478.5098757548917</v>
+        <v>163.4003314645488</v>
       </c>
       <c r="P11" t="n">
-        <v>115.0753383124757</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q11" t="n">
-        <v>86.41678664261508</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R11" t="n">
-        <v>50.2679998975741</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>368.2889420225626</v>
       </c>
       <c r="K12" t="n">
-        <v>69.13933862459135</v>
+        <v>560.0827021122761</v>
       </c>
       <c r="L12" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M12" t="n">
         <v>108.4873724731142</v>
       </c>
       <c r="N12" t="n">
-        <v>602.3020738959109</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O12" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P12" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q12" t="n">
         <v>54.65495046663523</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>112.8326691813998</v>
+        <v>112.8326691814001</v>
       </c>
       <c r="K13" t="n">
-        <v>319.238368227978</v>
+        <v>319.2383682279781</v>
       </c>
       <c r="L13" t="n">
         <v>475.8017225619687</v>
       </c>
       <c r="M13" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142324</v>
       </c>
       <c r="N13" t="n">
-        <v>501.6566681222644</v>
+        <v>501.6566681222641</v>
       </c>
       <c r="O13" t="n">
-        <v>474.6456364229134</v>
+        <v>474.6456364229139</v>
       </c>
       <c r="P13" t="n">
-        <v>394.4315932187724</v>
+        <v>394.4315932187719</v>
       </c>
       <c r="Q13" t="n">
         <v>199.9496610361725</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J14" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K14" t="n">
-        <v>101.7933749940668</v>
+        <v>944.5714476790953</v>
       </c>
       <c r="L14" t="n">
         <v>126.2836828660807</v>
       </c>
       <c r="M14" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N14" t="n">
-        <v>724.3998604938591</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O14" t="n">
-        <v>976.5861272830207</v>
+        <v>163.4003314645488</v>
       </c>
       <c r="P14" t="n">
         <v>951.7519795583303</v>
       </c>
       <c r="Q14" t="n">
-        <v>86.41678664261508</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R14" t="n">
         <v>221.1306915673285</v>
@@ -35728,22 +35728,22 @@
         <v>368.2889420225626</v>
       </c>
       <c r="K15" t="n">
-        <v>69.13933862459135</v>
+        <v>560.0827021122761</v>
       </c>
       <c r="L15" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M15" t="n">
         <v>108.4873724731142</v>
       </c>
       <c r="N15" t="n">
-        <v>602.3020738959109</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O15" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P15" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q15" t="n">
         <v>54.65495046663523</v>
@@ -35810,10 +35810,10 @@
         <v>319.2383682279781</v>
       </c>
       <c r="L16" t="n">
-        <v>475.8017225619684</v>
+        <v>475.8017225619687</v>
       </c>
       <c r="M16" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142327</v>
       </c>
       <c r="N16" t="n">
         <v>501.6566681222644</v>
@@ -35822,7 +35822,7 @@
         <v>474.6456364229134</v>
       </c>
       <c r="P16" t="n">
-        <v>394.4315932187724</v>
+        <v>394.4315932187719</v>
       </c>
       <c r="Q16" t="n">
         <v>199.9496610361725</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J17" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K17" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L17" t="n">
-        <v>1212.202840697252</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M17" t="n">
-        <v>140.5149294492257</v>
+        <v>140.5149294492256</v>
       </c>
       <c r="N17" t="n">
-        <v>1261.743435670598</v>
+        <v>1186.719430548877</v>
       </c>
       <c r="O17" t="n">
-        <v>134.8312334426587</v>
+        <v>1124.911704725796</v>
       </c>
       <c r="P17" t="n">
         <v>951.7519795583303</v>
@@ -35907,7 +35907,7 @@
         <v>638.4357623583674</v>
       </c>
       <c r="R17" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J18" t="n">
-        <v>368.2889420225626</v>
+        <v>339.358299983361</v>
       </c>
       <c r="K18" t="n">
         <v>69.1393386245914</v>
@@ -35980,10 +35980,10 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P18" t="n">
-        <v>81.76083127461402</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q18" t="n">
-        <v>571.9252565406412</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R18" t="n">
         <v>144.9401608746653</v>
@@ -36062,7 +36062,7 @@
         <v>394.4315932187724</v>
       </c>
       <c r="Q19" t="n">
-        <v>199.949661036173</v>
+        <v>199.9496610361725</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J20" t="n">
-        <v>67.91926700983799</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K20" t="n">
-        <v>101.7933749940668</v>
+        <v>944.5714476790951</v>
       </c>
       <c r="L20" t="n">
-        <v>1212.202840697252</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M20" t="n">
-        <v>1270.218137992564</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N20" t="n">
-        <v>1270.218137992564</v>
+        <v>343.9413578638482</v>
       </c>
       <c r="O20" t="n">
-        <v>134.8312334426582</v>
+        <v>1124.911704725796</v>
       </c>
       <c r="P20" t="n">
-        <v>253.2252681404179</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q20" t="n">
         <v>638.4357623583674</v>
       </c>
       <c r="R20" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J23" t="n">
-        <v>67.91926700983799</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K23" t="n">
-        <v>944.5714476790952</v>
+        <v>944.5714476790951</v>
       </c>
       <c r="L23" t="n">
-        <v>1212.202840697252</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M23" t="n">
         <v>140.5149294492257</v>
       </c>
       <c r="N23" t="n">
-        <v>142.7886079115501</v>
+        <v>343.9413578638482</v>
       </c>
       <c r="O23" t="n">
         <v>1124.911704725796</v>
       </c>
       <c r="P23" t="n">
-        <v>951.7519795583298</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q23" t="n">
-        <v>364.1832455966414</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R23" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.74166304161237</v>
+        <v>41.06860562793318</v>
       </c>
       <c r="J24" t="n">
-        <v>40.45225013749963</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K24" t="n">
-        <v>486.4017299798869</v>
+        <v>560.0827021122764</v>
       </c>
       <c r="L24" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M24" t="n">
         <v>108.4873724731142</v>
       </c>
       <c r="N24" t="n">
-        <v>111.3587104082256</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O24" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P24" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q24" t="n">
-        <v>600.8558985798429</v>
+        <v>54.65495046663523</v>
       </c>
       <c r="R24" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,25 +36591,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J26" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K26" t="n">
         <v>101.7933749940668</v>
       </c>
       <c r="L26" t="n">
-        <v>912.291274957808</v>
+        <v>1212.202840697252</v>
       </c>
       <c r="M26" t="n">
-        <v>1270.218137992564</v>
+        <v>1270.218137992566</v>
       </c>
       <c r="N26" t="n">
-        <v>1270.218137992564</v>
+        <v>1270.218137992566</v>
       </c>
       <c r="O26" t="n">
-        <v>1124.911704725796</v>
+        <v>825.0001389863555</v>
       </c>
       <c r="P26" t="n">
         <v>115.0753383124757</v>
@@ -36673,10 +36673,10 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J27" t="n">
-        <v>40.4522501374996</v>
+        <v>339.3582999833608</v>
       </c>
       <c r="K27" t="n">
-        <v>486.401729979887</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L27" t="n">
         <v>92.96637310509811</v>
@@ -36691,13 +36691,13 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P27" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q27" t="n">
         <v>600.8558985798429</v>
       </c>
       <c r="R27" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,16 +36755,16 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K28" t="n">
-        <v>319.2383682279777</v>
+        <v>319.238368227978</v>
       </c>
       <c r="L28" t="n">
         <v>475.8017225619686</v>
       </c>
       <c r="M28" t="n">
-        <v>520.3936629142327</v>
+        <v>520.3936629142324</v>
       </c>
       <c r="N28" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O28" t="n">
         <v>474.6456364229134</v>
@@ -36828,22 +36828,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J29" t="n">
-        <v>67.91926700983799</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K29" t="n">
-        <v>101.7933749940668</v>
+        <v>944.5714476790951</v>
       </c>
       <c r="L29" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M29" t="n">
-        <v>1270.218137992564</v>
+        <v>341.6676794015239</v>
       </c>
       <c r="N29" t="n">
-        <v>1219.549088838437</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O29" t="n">
         <v>1124.911704725796</v>
@@ -36852,10 +36852,10 @@
         <v>951.7519795583303</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.41678664261508</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R29" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J30" t="n">
-        <v>40.4522501374996</v>
+        <v>339.358299983361</v>
       </c>
       <c r="K30" t="n">
         <v>69.1393386245914</v>
       </c>
       <c r="L30" t="n">
-        <v>510.2287644603937</v>
+        <v>92.96637310509811</v>
       </c>
       <c r="M30" t="n">
         <v>108.4873724731142</v>
@@ -36928,13 +36928,13 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P30" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q30" t="n">
         <v>600.8558985798429</v>
       </c>
       <c r="R30" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>319.238368227978</v>
       </c>
       <c r="L31" t="n">
-        <v>475.8017225619686</v>
+        <v>475.8017225619687</v>
       </c>
       <c r="M31" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142324</v>
       </c>
       <c r="N31" t="n">
         <v>501.6566681222644</v>
       </c>
       <c r="O31" t="n">
-        <v>474.6456364229139</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P31" t="n">
         <v>394.4315932187724</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J32" t="n">
         <v>507.5704664572298</v>
@@ -37077,10 +37077,10 @@
         <v>126.2836828660807</v>
       </c>
       <c r="M32" t="n">
-        <v>140.5149294492257</v>
+        <v>341.6676794015239</v>
       </c>
       <c r="N32" t="n">
-        <v>343.9413578638482</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O32" t="n">
         <v>1124.911704725796</v>
@@ -37147,7 +37147,7 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J33" t="n">
-        <v>40.4522501374996</v>
+        <v>339.358299983361</v>
       </c>
       <c r="K33" t="n">
         <v>69.1393386245914</v>
@@ -37162,16 +37162,16 @@
         <v>111.3587104082256</v>
       </c>
       <c r="O33" t="n">
-        <v>237.3316053382138</v>
+        <v>101.8714643335472</v>
       </c>
       <c r="P33" t="n">
-        <v>909.7640297384505</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.65495046663523</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R33" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,10 +37235,10 @@
         <v>475.8017225619687</v>
       </c>
       <c r="M34" t="n">
-        <v>520.393662914232</v>
+        <v>520.3936629142324</v>
       </c>
       <c r="N34" t="n">
-        <v>501.6566681222639</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O34" t="n">
         <v>474.6456364229134</v>
@@ -37247,7 +37247,7 @@
         <v>394.4315932187724</v>
       </c>
       <c r="Q34" t="n">
-        <v>199.949661036173</v>
+        <v>199.9496610361725</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J35" t="n">
-        <v>67.91926700983799</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K35" t="n">
-        <v>944.5714476790952</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L35" t="n">
         <v>126.2836828660807</v>
       </c>
       <c r="M35" t="n">
-        <v>140.5149294492257</v>
+        <v>1270.218137992564</v>
       </c>
       <c r="N35" t="n">
         <v>1270.218137992564</v>
       </c>
       <c r="O35" t="n">
-        <v>1124.911704725796</v>
+        <v>1124.911704725797</v>
       </c>
       <c r="P35" t="n">
-        <v>951.7519795583298</v>
+        <v>290.5690392870565</v>
       </c>
       <c r="Q35" t="n">
-        <v>322.672873346798</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R35" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.74166304161237</v>
+        <v>41.06860562793318</v>
       </c>
       <c r="J36" t="n">
-        <v>40.4522501374996</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K36" t="n">
-        <v>69.1393386245914</v>
+        <v>560.0827021122764</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.429712573601</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M36" t="n">
         <v>108.4873724731142</v>
@@ -37402,13 +37402,13 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P36" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q36" t="n">
         <v>54.65495046663523</v>
       </c>
       <c r="R36" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37478,10 +37478,10 @@
         <v>501.6566681222644</v>
       </c>
       <c r="O37" t="n">
-        <v>474.6456364229139</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P37" t="n">
-        <v>394.4315932187724</v>
+        <v>394.4315932187728</v>
       </c>
       <c r="Q37" t="n">
         <v>199.9496610361725</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J38" t="n">
         <v>507.5704664572298</v>
@@ -37548,7 +37548,7 @@
         <v>944.5714476790951</v>
       </c>
       <c r="L38" t="n">
-        <v>1212.202840697252</v>
+        <v>327.4364328183788</v>
       </c>
       <c r="M38" t="n">
         <v>140.5149294492257</v>
@@ -37560,13 +37560,13 @@
         <v>1124.911704725796</v>
       </c>
       <c r="P38" t="n">
-        <v>789.8672390649635</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q38" t="n">
-        <v>86.41678664261508</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R38" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J39" t="n">
-        <v>368.2889420225626</v>
+        <v>339.358299983361</v>
       </c>
       <c r="K39" t="n">
-        <v>69.13933862459135</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L39" t="n">
         <v>92.96637310509811</v>
@@ -37642,7 +37642,7 @@
         <v>81.76083127461391</v>
       </c>
       <c r="Q39" t="n">
-        <v>571.9252565406414</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R39" t="n">
         <v>144.9401608746653</v>
@@ -37709,7 +37709,7 @@
         <v>475.8017225619687</v>
       </c>
       <c r="M40" t="n">
-        <v>520.3936629142324</v>
+        <v>520.3936629142329</v>
       </c>
       <c r="N40" t="n">
         <v>501.6566681222644</v>
@@ -37718,7 +37718,7 @@
         <v>474.6456364229134</v>
       </c>
       <c r="P40" t="n">
-        <v>394.4315932187724</v>
+        <v>394.4315932187715</v>
       </c>
       <c r="Q40" t="n">
         <v>199.9496610361725</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J41" t="n">
         <v>507.5704664572298</v>
@@ -37791,19 +37791,19 @@
         <v>140.5149294492257</v>
       </c>
       <c r="N41" t="n">
-        <v>342.2203976031942</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O41" t="n">
-        <v>134.8312334426587</v>
+        <v>163.4003314645488</v>
       </c>
       <c r="P41" t="n">
         <v>951.7519795583303</v>
       </c>
       <c r="Q41" t="n">
-        <v>638.4357623583669</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R41" t="n">
-        <v>50.2679998975741</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>41.0686056279332</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J42" t="n">
-        <v>40.4522501374996</v>
+        <v>339.3582999833608</v>
       </c>
       <c r="K42" t="n">
         <v>69.1393386245914</v>
@@ -37876,10 +37876,10 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P42" t="n">
-        <v>900.540886647362</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.65495046663523</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R42" t="n">
         <v>144.9401608746653</v>
@@ -37940,22 +37940,22 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K43" t="n">
-        <v>319.238368227978</v>
+        <v>319.2383682279781</v>
       </c>
       <c r="L43" t="n">
         <v>475.8017225619687</v>
       </c>
       <c r="M43" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142327</v>
       </c>
       <c r="N43" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O43" t="n">
         <v>474.6456364229134</v>
       </c>
       <c r="P43" t="n">
-        <v>394.4315932187724</v>
+        <v>394.4315932187719</v>
       </c>
       <c r="Q43" t="n">
         <v>199.9496610361725</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J44" t="n">
         <v>507.5704664572298</v>
@@ -38022,7 +38022,7 @@
         <v>944.5714476790953</v>
       </c>
       <c r="L44" t="n">
-        <v>325.7154725577248</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M44" t="n">
         <v>140.5149294492257</v>
@@ -38031,16 +38031,16 @@
         <v>142.7886079115501</v>
       </c>
       <c r="O44" t="n">
-        <v>134.8312334426587</v>
+        <v>715.4193071803011</v>
       </c>
       <c r="P44" t="n">
         <v>951.7519795583303</v>
       </c>
       <c r="Q44" t="n">
-        <v>638.4357623583669</v>
+        <v>86.41678664261508</v>
       </c>
       <c r="R44" t="n">
-        <v>50.2679998975741</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J45" t="n">
-        <v>368.2889420225626</v>
+        <v>339.3582999833608</v>
       </c>
       <c r="K45" t="n">
-        <v>704.7659862080314</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L45" t="n">
-        <v>92.966373105098</v>
+        <v>92.96637310509811</v>
       </c>
       <c r="M45" t="n">
         <v>108.4873724731142</v>
       </c>
       <c r="N45" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082256</v>
       </c>
       <c r="O45" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P45" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.65495046663523</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R45" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>112.8326691814001</v>
+        <v>112.8326691813995</v>
       </c>
       <c r="K46" t="n">
         <v>319.238368227978</v>
       </c>
       <c r="L46" t="n">
-        <v>475.8017225619687</v>
+        <v>475.8017225619686</v>
       </c>
       <c r="M46" t="n">
         <v>520.3936629142326</v>
       </c>
       <c r="N46" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O46" t="n">
         <v>474.6456364229134</v>
